--- a/APF/QA/RA006/QAP001_APF_RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0002_帳號登入認證.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PIC2013\QA\速達3G\9.3 文件檢視記錄統計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a8907010\Documents\suda3g\9. 品質管理\9.3 文件檢視記錄統計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1401" yWindow="275" windowWidth="10918" windowHeight="5616" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="418">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2698,6 +2698,31 @@
   </si>
   <si>
     <t>功能分析</t>
+  </si>
+  <si>
+    <t>SD PM</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>林傳勝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信、傳勝、鈺杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈺杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能設計</t>
   </si>
 </sst>
 </file>
@@ -4553,7 +4578,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="17" customWidth="1"/>
@@ -4580,7 +4605,7 @@
       <c r="E2" s="146"/>
       <c r="F2" s="146"/>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
@@ -4591,7 +4616,7 @@
       <c r="E3" s="146"/>
       <c r="F3" s="146"/>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
@@ -4602,7 +4627,7 @@
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
@@ -4613,7 +4638,7 @@
       <c r="E5" s="148"/>
       <c r="F5" s="148"/>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="142" t="s">
         <v>56</v>
       </c>
@@ -4623,7 +4648,7 @@
       <c r="E6" s="143"/>
       <c r="F6" s="144"/>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4643,7 +4668,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.399999999999999">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -4811,13 +4836,13 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.125" style="77" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="49" customWidth="1"/>
@@ -4838,7 +4863,7 @@
     <col min="23" max="16384" width="9" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="49"/>
       <c r="B1" s="50" t="s">
         <v>35</v>
@@ -4860,7 +4885,7 @@
       <c r="Q1" s="49"/>
       <c r="R1" s="49"/>
     </row>
-    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
+    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="55"/>
       <c r="B2" s="50" t="s">
         <v>36</v>
@@ -4882,7 +4907,7 @@
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
     </row>
-    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
+    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="55"/>
       <c r="B3" s="50" t="s">
         <v>37</v>
@@ -4904,7 +4929,7 @@
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
     </row>
-    <row r="4" spans="1:20" s="102" customFormat="1" ht="33.049999999999997" customHeight="1">
+    <row r="4" spans="1:20" s="102" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="50" t="s">
         <v>282</v>
@@ -4936,22 +4961,22 @@
       <c r="O4" s="62"/>
       <c r="P4" s="58"/>
     </row>
-    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.3" customHeight="1">
+    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="62"/>
       <c r="B5" s="50" t="s">
         <v>282</v>
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>23.333333333333321</v>
+        <v>27.333333333333321</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$27)</f>
@@ -4974,7 +4999,7 @@
       <c r="O5" s="62"/>
       <c r="P5" s="58"/>
     </row>
-    <row r="6" spans="1:20" s="58" customFormat="1" ht="49.1">
+    <row r="6" spans="1:20" s="58" customFormat="1" ht="33">
       <c r="A6" s="103" t="s">
         <v>38</v>
       </c>
@@ -5032,7 +5057,7 @@
       <c r="S6" s="107"/>
       <c r="T6" s="107"/>
     </row>
-    <row r="7" spans="1:20" s="55" customFormat="1" ht="49.1">
+    <row r="7" spans="1:20" s="55" customFormat="1" ht="49.5">
       <c r="A7" s="64" t="s">
         <v>382</v>
       </c>
@@ -5092,7 +5117,7 @@
       </c>
       <c r="R7" s="72"/>
     </row>
-    <row r="8" spans="1:20" s="55" customFormat="1" ht="32.75">
+    <row r="8" spans="1:20" s="55" customFormat="1" ht="33">
       <c r="A8" s="64" t="s">
         <v>382</v>
       </c>
@@ -5151,27 +5176,66 @@
       </c>
       <c r="R8" s="72"/>
     </row>
-    <row r="9" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
-      <c r="A9" s="64"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
+    <row r="9" spans="1:20" s="55" customFormat="1" ht="16.5">
+      <c r="A9" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="140" t="s">
+        <v>413</v>
+      </c>
+      <c r="E9" s="66">
+        <v>41582</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="66">
+        <v>41582</v>
+      </c>
+      <c r="H9" s="67">
+        <v>0.4375</v>
+      </c>
+      <c r="I9" s="67">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="J9" s="65">
+        <v>4</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>415</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="M9" s="70">
+        <f>IF(C9="","",J9*(I9-H9)*24)</f>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="N9" s="63">
+        <f>IF(C9="","",COUNTIF(改善明細!A:A,Q9))</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="63">
+        <f>IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="71" t="str">
+        <f t="shared" ref="P9" si="2">IF(Q9="","",LEFT(Q9,FIND("-",Q9)-1))</f>
+        <v>SD PM</v>
+      </c>
+      <c r="Q9" s="71" t="str">
+        <f>IF(OR(A9="",B9=""),"",A9&amp;"-"&amp;B9)</f>
+        <v>SD PM-3</v>
+      </c>
       <c r="R9" s="72"/>
     </row>
-    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A10" s="64"/>
       <c r="B10" s="1"/>
       <c r="C10" s="65"/>
@@ -5191,7 +5255,7 @@
       <c r="Q10" s="71"/>
       <c r="R10" s="74"/>
     </row>
-    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A11" s="64"/>
       <c r="B11" s="1"/>
       <c r="C11" s="65"/>
@@ -5211,7 +5275,7 @@
       <c r="Q11" s="71"/>
       <c r="R11" s="74"/>
     </row>
-    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A12" s="64"/>
       <c r="B12" s="1" t="str">
         <f ca="1">IF(A12="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B12,,-1,,),OFFSET(B12,,-1,,)))</f>
@@ -5228,7 +5292,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="69"/>
       <c r="M12" s="70" t="str">
-        <f t="shared" ref="M12:M20" si="2">IF(C12="","",J12*(I12-H12)*24)</f>
+        <f t="shared" ref="M12:M20" si="3">IF(C12="","",J12*(I12-H12)*24)</f>
         <v/>
       </c>
       <c r="N12" s="63" t="str">
@@ -5240,16 +5304,16 @@
         <v/>
       </c>
       <c r="P12" s="71" t="str">
-        <f t="shared" ref="P12:P20" ca="1" si="3">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
+        <f t="shared" ref="P12:P20" ca="1" si="4">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
         <v/>
       </c>
       <c r="Q12" s="71" t="str">
-        <f t="shared" ref="Q12:Q20" ca="1" si="4">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
+        <f t="shared" ref="Q12:Q20" ca="1" si="5">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
         <v/>
       </c>
       <c r="R12" s="74"/>
     </row>
-    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A13" s="64"/>
       <c r="B13" s="1" t="str">
         <f ca="1">IF(A13="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B13,,-1,,),OFFSET(B13,,-1,,)))</f>
@@ -5266,7 +5330,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="69"/>
       <c r="M13" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N13" s="63" t="str">
@@ -5278,16 +5342,16 @@
         <v/>
       </c>
       <c r="P13" s="71" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q13" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R13" s="74"/>
     </row>
-    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A14" s="64"/>
       <c r="B14" s="1" t="str">
         <f ca="1">IF(A14="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B14,,-1,,),OFFSET(B14,,-1,,)))</f>
@@ -5304,7 +5368,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="69"/>
       <c r="M14" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N14" s="63" t="str">
@@ -5316,16 +5380,16 @@
         <v/>
       </c>
       <c r="P14" s="71" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q14" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R14" s="74"/>
     </row>
-    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A15" s="64"/>
       <c r="B15" s="1" t="str">
         <f ca="1">IF(A15="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B15,,-1,,),OFFSET(B15,,-1,,)))</f>
@@ -5342,7 +5406,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="69"/>
       <c r="M15" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N15" s="63" t="str">
@@ -5354,7 +5418,7 @@
         <v/>
       </c>
       <c r="P15" s="71" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q15" s="71" t="str">
@@ -5363,7 +5427,7 @@
       </c>
       <c r="R15" s="74"/>
     </row>
-    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A16" s="64"/>
       <c r="B16" s="1" t="str">
         <f ca="1">IF(A16="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B16,,-1,,),OFFSET(B16,,-1,,)))</f>
@@ -5380,7 +5444,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="69"/>
       <c r="M16" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N16" s="63" t="str">
@@ -5392,16 +5456,16 @@
         <v/>
       </c>
       <c r="P16" s="71" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q16" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R16" s="74"/>
     </row>
-    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A17" s="64"/>
       <c r="B17" s="1" t="str">
         <f ca="1">IF(A17="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B17,,-1,,),OFFSET(B17,,-1,,)))</f>
@@ -5418,7 +5482,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="69"/>
       <c r="M17" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N17" s="63" t="str">
@@ -5430,16 +5494,16 @@
         <v/>
       </c>
       <c r="P17" s="71" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q17" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R17" s="74"/>
     </row>
-    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A18" s="64"/>
       <c r="B18" s="1" t="str">
         <f ca="1">IF(A18="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B18,,-1,,),OFFSET(B18,,-1,,)))</f>
@@ -5456,7 +5520,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="69"/>
       <c r="M18" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N18" s="63" t="str">
@@ -5468,16 +5532,16 @@
         <v/>
       </c>
       <c r="P18" s="71" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q18" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R18" s="74"/>
     </row>
-    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A19" s="64"/>
       <c r="B19" s="1" t="str">
         <f ca="1">IF(A19="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B19,,-1,,),OFFSET(B19,,-1,,)))</f>
@@ -5494,7 +5558,7 @@
       <c r="K19" s="68"/>
       <c r="L19" s="69"/>
       <c r="M19" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N19" s="63" t="str">
@@ -5506,16 +5570,16 @@
         <v/>
       </c>
       <c r="P19" s="71" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q19" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R19" s="74"/>
     </row>
-    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A20" s="64"/>
       <c r="B20" s="1" t="str">
         <f ca="1">IF(A20="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B20,,-1,,),OFFSET(B20,,-1,,)))</f>
@@ -5532,7 +5596,7 @@
       <c r="K20" s="68"/>
       <c r="L20" s="69"/>
       <c r="M20" s="70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N20" s="63" t="str">
@@ -5544,16 +5608,16 @@
         <v/>
       </c>
       <c r="P20" s="71" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q20" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R20" s="74"/>
     </row>
-    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A21" s="64"/>
       <c r="B21" s="1" t="str">
         <f ca="1">IF(A21="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B21,,-1,,),OFFSET(B21,,-1,,)))</f>
@@ -6089,13 +6153,13 @@
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F8"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.1" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.625" style="93" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="93" bestFit="1" customWidth="1"/>
@@ -6116,7 +6180,7 @@
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>10</v>
       </c>
@@ -6141,7 +6205,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.8" customHeight="1">
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>262</v>
       </c>
@@ -6185,7 +6249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="49.1">
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A3" s="40" t="s">
         <v>383</v>
       </c>
@@ -6275,7 +6339,7 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A5" s="40" t="s">
         <v>383</v>
       </c>
@@ -6320,7 +6384,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" ht="49.1">
+    <row r="6" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A6" s="40" t="s">
         <v>383</v>
       </c>
@@ -6410,7 +6474,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A8" s="40" t="s">
         <v>402</v>
       </c>
@@ -6427,7 +6491,7 @@
         <v>388</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="G8" s="44" t="s">
         <v>390</v>
@@ -6455,7 +6519,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A9" s="40"/>
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
@@ -6473,7 +6537,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="10" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -6491,7 +6555,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="11" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
       <c r="C11" s="42"/>
@@ -6509,7 +6573,7 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="12" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
@@ -6527,7 +6591,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="13" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
@@ -6545,7 +6609,7 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="14" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -6563,7 +6627,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="15" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
@@ -6581,7 +6645,7 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="16" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -6599,7 +6663,7 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
-    <row r="17" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="17" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -6617,7 +6681,7 @@
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
     </row>
-    <row r="18" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="18" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
       <c r="C18" s="48"/>
@@ -6635,7 +6699,7 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="41"/>
       <c r="C19" s="48"/>
@@ -6653,7 +6717,7 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
     </row>
-    <row r="20" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="20" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="41"/>
       <c r="C20" s="48"/>
@@ -6671,7 +6735,7 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="41"/>
       <c r="C21" s="48"/>
@@ -6689,7 +6753,7 @@
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
     </row>
-    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="41"/>
       <c r="C22" s="48"/>
@@ -6707,7 +6771,7 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
     </row>
-    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="48"/>
@@ -6725,7 +6789,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A24" s="40"/>
       <c r="B24" s="41"/>
       <c r="C24" s="48"/>
@@ -6743,7 +6807,7 @@
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A25" s="40"/>
       <c r="B25" s="41"/>
       <c r="C25" s="48"/>
@@ -6761,7 +6825,7 @@
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
     </row>
-    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="48"/>
@@ -6779,7 +6843,7 @@
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
     </row>
-    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A27" s="40"/>
       <c r="B27" s="41"/>
       <c r="C27" s="48"/>
@@ -6797,7 +6861,7 @@
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
     </row>
-    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="41"/>
       <c r="C28" s="48"/>
@@ -6824,7 +6888,7 @@
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
     </row>
-    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="41"/>
       <c r="C29" s="48"/>
@@ -6851,7 +6915,7 @@
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
     </row>
-    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="41"/>
       <c r="C30" s="48"/>
@@ -6878,7 +6942,7 @@
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
     </row>
-    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="41"/>
       <c r="C31" s="48"/>
@@ -6905,7 +6969,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
     </row>
-    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="41"/>
       <c r="C32" s="48"/>
@@ -6932,7 +6996,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
     </row>
-    <row r="33" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="33" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="41"/>
       <c r="C33" s="48"/>
@@ -6959,7 +7023,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
     </row>
-    <row r="34" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="34" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="41"/>
       <c r="C34" s="48"/>
@@ -6986,7 +7050,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
     </row>
-    <row r="35" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="35" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="41"/>
       <c r="C35" s="48"/>
@@ -7013,7 +7077,7 @@
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
     </row>
-    <row r="36" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="36" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="41"/>
       <c r="C36" s="48"/>
@@ -7040,7 +7104,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
     </row>
-    <row r="37" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="37" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="41"/>
       <c r="C37" s="48"/>
@@ -7067,7 +7131,7 @@
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
     </row>
-    <row r="38" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="38" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="41"/>
       <c r="C38" s="48"/>
@@ -7094,7 +7158,7 @@
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
     </row>
-    <row r="39" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="39" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A39" s="47"/>
       <c r="B39" s="41"/>
       <c r="C39" s="48"/>
@@ -7121,7 +7185,7 @@
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
     </row>
-    <row r="40" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="40" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A40" s="47"/>
       <c r="B40" s="41"/>
       <c r="C40" s="48"/>
@@ -7148,7 +7212,7 @@
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
     </row>
-    <row r="41" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="41" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A41" s="47"/>
       <c r="B41" s="41"/>
       <c r="C41" s="48"/>
@@ -7175,7 +7239,7 @@
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
     </row>
-    <row r="42" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="42" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A42" s="47"/>
       <c r="B42" s="41"/>
       <c r="C42" s="48"/>
@@ -7202,7 +7266,7 @@
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
     </row>
-    <row r="43" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="43" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A43" s="47"/>
       <c r="B43" s="41"/>
       <c r="C43" s="48"/>
@@ -7229,7 +7293,7 @@
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
     </row>
-    <row r="44" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="44" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A44" s="47"/>
       <c r="B44" s="41"/>
       <c r="C44" s="48"/>
@@ -7256,7 +7320,7 @@
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="45" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A45" s="47"/>
       <c r="B45" s="41"/>
       <c r="C45" s="48"/>
@@ -7283,7 +7347,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="46" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A46" s="47"/>
       <c r="B46" s="41"/>
       <c r="C46" s="48"/>
@@ -7310,7 +7374,7 @@
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
     </row>
-    <row r="47" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="47" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A47" s="47"/>
       <c r="B47" s="41"/>
       <c r="C47" s="48"/>
@@ -7337,7 +7401,7 @@
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="48" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A48" s="47"/>
       <c r="B48" s="41"/>
       <c r="C48" s="48"/>
@@ -7364,7 +7428,7 @@
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
     </row>
-    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A49" s="47"/>
       <c r="B49" s="41"/>
       <c r="C49" s="48"/>
@@ -7391,7 +7455,7 @@
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
     </row>
-    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A50" s="47"/>
       <c r="B50" s="41"/>
       <c r="C50" s="48"/>
@@ -7418,7 +7482,7 @@
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
     </row>
-    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A51" s="47"/>
       <c r="B51" s="41"/>
       <c r="C51" s="48"/>
@@ -7445,7 +7509,7 @@
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
     </row>
-    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="86"/>
       <c r="C52" s="86"/>
@@ -7465,7 +7529,7 @@
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
     </row>
-    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A53" s="86"/>
       <c r="B53" s="86"/>
       <c r="C53" s="86"/>
@@ -7485,7 +7549,7 @@
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A54" s="86"/>
       <c r="B54" s="86"/>
       <c r="C54" s="86"/>
@@ -7505,7 +7569,7 @@
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
     </row>
-    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A55" s="86"/>
       <c r="B55" s="86"/>
       <c r="C55" s="86"/>
@@ -7525,7 +7589,7 @@
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
     </row>
-    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A56" s="86"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86"/>
@@ -7545,7 +7609,7 @@
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
     </row>
-    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A57" s="86"/>
       <c r="B57" s="86"/>
       <c r="C57" s="86"/>
@@ -7565,7 +7629,7 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
     </row>
-    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="86"/>
@@ -7585,7 +7649,7 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
     </row>
-    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="86"/>
@@ -7605,7 +7669,7 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
     </row>
-    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="86"/>
@@ -7625,7 +7689,7 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
     </row>
-    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A61" s="86"/>
       <c r="B61" s="86"/>
       <c r="C61" s="86"/>
@@ -7645,7 +7709,7 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
     </row>
-    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A62" s="86"/>
       <c r="B62" s="86"/>
       <c r="C62" s="86"/>
@@ -7665,7 +7729,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
     </row>
-    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A63" s="86"/>
       <c r="B63" s="86"/>
       <c r="C63" s="86"/>
@@ -7685,7 +7749,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
     </row>
-    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A64" s="86"/>
       <c r="B64" s="86"/>
       <c r="C64" s="86"/>
@@ -7705,7 +7769,7 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
     </row>
-    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A65" s="86"/>
       <c r="B65" s="86"/>
       <c r="C65" s="86"/>
@@ -7725,7 +7789,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
     </row>
-    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
       <c r="C66" s="86"/>
@@ -7745,7 +7809,7 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
     </row>
-    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="86"/>
@@ -7765,7 +7829,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
     </row>
-    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
@@ -7785,7 +7849,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
     </row>
-    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="86"/>
@@ -7805,7 +7869,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
-    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A70" s="86"/>
       <c r="B70" s="86"/>
       <c r="C70" s="86"/>
@@ -7825,7 +7889,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
     </row>
-    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A71" s="86"/>
       <c r="B71" s="86"/>
       <c r="C71" s="86"/>
@@ -7845,7 +7909,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
     </row>
-    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A72" s="86"/>
       <c r="B72" s="86"/>
       <c r="C72" s="86"/>
@@ -7865,7 +7929,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
     </row>
-    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A73" s="86"/>
       <c r="B73" s="86"/>
       <c r="C73" s="86"/>
@@ -7885,7 +7949,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
     </row>
-    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
       <c r="C74" s="86"/>
@@ -7905,7 +7969,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
     </row>
-    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A75" s="86"/>
       <c r="B75" s="86"/>
       <c r="C75" s="86"/>
@@ -7925,7 +7989,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
     </row>
-    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A76" s="86"/>
       <c r="B76" s="86"/>
       <c r="C76" s="86"/>
@@ -7945,7 +8009,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A77" s="86"/>
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
@@ -7965,7 +8029,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
     </row>
-    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A78" s="86"/>
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
@@ -7985,7 +8049,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
     </row>
-    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
@@ -8005,7 +8069,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
     </row>
-    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
@@ -8025,7 +8089,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
     </row>
-    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
@@ -8045,7 +8109,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
     </row>
-    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A82" s="86"/>
       <c r="B82" s="86"/>
       <c r="C82" s="86"/>
@@ -8065,7 +8129,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
     </row>
-    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="C83" s="86"/>
@@ -8085,7 +8149,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
     </row>
-    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A84" s="86"/>
       <c r="B84" s="86"/>
       <c r="C84" s="86"/>
@@ -8105,7 +8169,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
     </row>
-    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A85" s="86"/>
       <c r="B85" s="86"/>
       <c r="C85" s="86"/>
@@ -8125,7 +8189,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
     </row>
-    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A86" s="86"/>
       <c r="B86" s="86"/>
       <c r="C86" s="86"/>
@@ -8145,7 +8209,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
     </row>
-    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A87" s="86"/>
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
@@ -8165,7 +8229,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
     </row>
-    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A88" s="86"/>
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
@@ -8185,7 +8249,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
     </row>
-    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
@@ -8205,7 +8269,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
     </row>
-    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
@@ -8225,7 +8289,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
     </row>
-    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A91" s="86"/>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
@@ -8245,7 +8309,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
     </row>
-    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A92" s="86"/>
       <c r="B92" s="86"/>
       <c r="C92" s="86"/>
@@ -8265,7 +8329,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
     </row>
-    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A93" s="86"/>
       <c r="B93" s="86"/>
       <c r="C93" s="86"/>
@@ -8285,7 +8349,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
     </row>
-    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A94" s="86"/>
       <c r="B94" s="86"/>
       <c r="C94" s="86"/>
@@ -8305,7 +8369,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
     </row>
-    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A95" s="86"/>
       <c r="B95" s="86"/>
       <c r="C95" s="86"/>
@@ -8325,7 +8389,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
     </row>
-    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A96" s="86"/>
       <c r="B96" s="86"/>
       <c r="C96" s="86"/>
@@ -8345,7 +8409,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
     </row>
-    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A97" s="86"/>
       <c r="B97" s="86"/>
       <c r="C97" s="86"/>
@@ -8365,7 +8429,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A98" s="86"/>
       <c r="B98" s="86"/>
       <c r="C98" s="86"/>
@@ -8385,7 +8449,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A99" s="86"/>
       <c r="B99" s="86"/>
       <c r="C99" s="86"/>
@@ -8405,7 +8469,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
     </row>
-    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A100" s="86"/>
       <c r="B100" s="86"/>
       <c r="C100" s="86"/>
@@ -8425,7 +8489,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
     </row>
-    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A101" s="86"/>
       <c r="B101" s="86"/>
       <c r="C101" s="86"/>
@@ -8445,7 +8509,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
     </row>
-    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A102" s="86"/>
       <c r="B102" s="86"/>
       <c r="C102" s="86"/>
@@ -8465,7 +8529,7 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
     </row>
-    <row r="103" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="103" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A103" s="86"/>
       <c r="B103" s="86"/>
       <c r="C103" s="86"/>
@@ -8485,7 +8549,7 @@
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
     </row>
-    <row r="104" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="104" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A104" s="86"/>
       <c r="B104" s="86"/>
       <c r="C104" s="86"/>
@@ -8505,7 +8569,7 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="22"/>
     </row>
-    <row r="105" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="105" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A105" s="86"/>
       <c r="B105" s="86"/>
       <c r="C105" s="86"/>
@@ -8525,7 +8589,7 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
     </row>
-    <row r="106" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="106" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A106" s="86"/>
       <c r="B106" s="86"/>
       <c r="C106" s="86"/>
@@ -8545,25 +8609,25 @@
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
     </row>
-    <row r="107" spans="1:18" ht="31.1" customHeight="1">
+    <row r="107" spans="1:18" ht="31.15" customHeight="1">
       <c r="I107" s="88"/>
     </row>
-    <row r="108" spans="1:18" ht="31.1" customHeight="1">
+    <row r="108" spans="1:18" ht="31.15" customHeight="1">
       <c r="I108" s="88"/>
     </row>
-    <row r="109" spans="1:18" ht="31.1" customHeight="1">
+    <row r="109" spans="1:18" ht="31.15" customHeight="1">
       <c r="I109" s="88"/>
     </row>
-    <row r="110" spans="1:18" ht="31.1" customHeight="1">
+    <row r="110" spans="1:18" ht="31.15" customHeight="1">
       <c r="I110" s="88"/>
     </row>
-    <row r="111" spans="1:18" ht="31.1" customHeight="1">
+    <row r="111" spans="1:18" ht="31.15" customHeight="1">
       <c r="I111" s="88"/>
     </row>
-    <row r="112" spans="1:18" ht="31.1" customHeight="1">
+    <row r="112" spans="1:18" ht="31.15" customHeight="1">
       <c r="I112" s="88"/>
     </row>
-    <row r="113" spans="9:9" ht="31.1" customHeight="1">
+    <row r="113" spans="9:9" ht="31.15" customHeight="1">
       <c r="I113" s="88"/>
     </row>
   </sheetData>
@@ -8608,7 +8672,7 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="116" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="116" customWidth="1"/>
@@ -8644,7 +8708,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.1">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="139" t="s">
         <v>357</v>
       </c>
@@ -8667,7 +8731,7 @@
       </c>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:9" ht="32.75">
+    <row r="3" spans="1:9" ht="33">
       <c r="A3" s="138" t="s">
         <v>354</v>
       </c>
@@ -8690,7 +8754,7 @@
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="32.75">
+    <row r="4" spans="1:9" ht="33">
       <c r="A4" s="139" t="s">
         <v>377</v>
       </c>
@@ -8713,7 +8777,7 @@
       </c>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" ht="49.1">
+    <row r="5" spans="1:9" ht="49.5">
       <c r="A5" s="139" t="s">
         <v>355</v>
       </c>
@@ -8735,7 +8799,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="49.1">
+    <row r="6" spans="1:9" ht="49.5">
       <c r="A6" s="139" t="s">
         <v>356</v>
       </c>
@@ -8757,7 +8821,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="49.1">
+    <row r="7" spans="1:9" ht="49.5">
       <c r="A7" s="139" t="s">
         <v>358</v>
       </c>
@@ -8801,7 +8865,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="49.1">
+    <row r="9" spans="1:9" ht="49.5">
       <c r="A9" s="139" t="s">
         <v>360</v>
       </c>
@@ -8969,7 +9033,7 @@
       <selection pane="bottomRight" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="27" customWidth="1"/>
@@ -9006,7 +9070,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A2" s="30" t="s">
         <v>247</v>
       </c>
@@ -9028,7 +9092,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A3" s="30" t="s">
         <v>247</v>
       </c>
@@ -9050,7 +9114,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="4" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A4" s="30" t="s">
         <v>247</v>
       </c>
@@ -9072,7 +9136,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="5" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A5" s="30" t="s">
         <v>247</v>
       </c>
@@ -9094,7 +9158,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A6" s="30" t="s">
         <v>247</v>
       </c>
@@ -9116,7 +9180,7 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="7" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A7" s="30" t="s">
         <v>247</v>
       </c>
@@ -9138,7 +9202,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="8" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A8" s="30" t="s">
         <v>247</v>
       </c>
@@ -9160,7 +9224,7 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="9" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A9" s="30" t="s">
         <v>247</v>
       </c>
@@ -9182,7 +9246,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="10" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A10" s="30" t="s">
         <v>247</v>
       </c>
@@ -9204,7 +9268,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A11" s="30" t="s">
         <v>247</v>
       </c>
@@ -9223,7 +9287,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A12" s="30" t="s">
         <v>247</v>
       </c>
@@ -9245,7 +9309,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A13" s="30" t="s">
         <v>247</v>
       </c>
@@ -9267,7 +9331,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A14" s="30" t="s">
         <v>247</v>
       </c>
@@ -9289,7 +9353,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A15" s="30" t="s">
         <v>247</v>
       </c>
@@ -9311,7 +9375,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A16" s="30" t="s">
         <v>247</v>
       </c>
@@ -9333,7 +9397,7 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="17" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A17" s="30" t="s">
         <v>247</v>
       </c>
@@ -9355,7 +9419,7 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="18" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A18" s="30" t="s">
         <v>247</v>
       </c>
@@ -9377,7 +9441,7 @@
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="19" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A19" s="30" t="s">
         <v>247</v>
       </c>
@@ -9396,7 +9460,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A20" s="30" t="s">
         <v>247</v>
       </c>
@@ -9415,7 +9479,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A21" s="30" t="s">
         <v>247</v>
       </c>
@@ -9437,7 +9501,7 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A22" s="30" t="s">
         <v>247</v>
       </c>
@@ -9459,7 +9523,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A23" s="30" t="s">
         <v>247</v>
       </c>
@@ -9481,7 +9545,7 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A24" s="30" t="s">
         <v>247</v>
       </c>
@@ -9569,7 +9633,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A28" s="30" t="s">
         <v>247</v>
       </c>
@@ -9635,7 +9699,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A31" s="30" t="s">
         <v>247</v>
       </c>
@@ -9723,7 +9787,7 @@
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="35" spans="1:12" s="23" customFormat="1">
       <c r="A35" s="30" t="s">
         <v>247</v>
       </c>
@@ -9745,7 +9809,7 @@
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="36" spans="1:12" s="23" customFormat="1">
       <c r="A36" s="30" t="s">
         <v>247</v>
       </c>
@@ -9767,7 +9831,7 @@
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12" ht="32.75">
+    <row r="37" spans="1:12">
       <c r="A37" s="30" t="s">
         <v>247</v>
       </c>
@@ -9782,7 +9846,7 @@
       </c>
       <c r="E37" s="26"/>
     </row>
-    <row r="38" spans="1:12" ht="32.75">
+    <row r="38" spans="1:12">
       <c r="A38" s="30" t="s">
         <v>247</v>
       </c>
@@ -9797,7 +9861,7 @@
       </c>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="1:12" ht="32.75">
+    <row r="39" spans="1:12">
       <c r="A39" s="30" t="s">
         <v>247</v>
       </c>
@@ -9812,7 +9876,7 @@
       </c>
       <c r="E39" s="26"/>
     </row>
-    <row r="40" spans="1:12" ht="32.75">
+    <row r="40" spans="1:12">
       <c r="A40" s="30" t="s">
         <v>247</v>
       </c>
@@ -9828,7 +9892,7 @@
       <c r="E40" s="26"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:12" ht="32.75">
+    <row r="41" spans="1:12">
       <c r="A41" s="30" t="s">
         <v>247</v>
       </c>
@@ -9843,7 +9907,7 @@
       </c>
       <c r="E41" s="26"/>
     </row>
-    <row r="42" spans="1:12" ht="32.75">
+    <row r="42" spans="1:12" ht="33">
       <c r="A42" s="30" t="s">
         <v>247</v>
       </c>
@@ -9858,7 +9922,7 @@
       </c>
       <c r="E42" s="26"/>
     </row>
-    <row r="43" spans="1:12" ht="32.75">
+    <row r="43" spans="1:12">
       <c r="A43" s="30" t="s">
         <v>247</v>
       </c>
@@ -9873,7 +9937,7 @@
       </c>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:12" ht="32.75">
+    <row r="44" spans="1:12">
       <c r="A44" s="30" t="s">
         <v>247</v>
       </c>
@@ -9888,7 +9952,7 @@
       </c>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:12" ht="32.75">
+    <row r="45" spans="1:12">
       <c r="A45" s="30" t="s">
         <v>247</v>
       </c>
@@ -9903,7 +9967,7 @@
       </c>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:12" ht="32.75">
+    <row r="46" spans="1:12">
       <c r="A46" s="30" t="s">
         <v>247</v>
       </c>
@@ -9985,7 +10049,7 @@
       </c>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:12" ht="32.75">
+    <row r="51" spans="1:12">
       <c r="A51" s="30" t="s">
         <v>247</v>
       </c>
@@ -10030,7 +10094,7 @@
       </c>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:12" ht="32.75">
+    <row r="54" spans="1:12" ht="33">
       <c r="A54" s="30" t="s">
         <v>247</v>
       </c>
@@ -10131,7 +10195,7 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="60" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A60" s="30" t="s">
         <v>247</v>
       </c>
@@ -10194,7 +10258,7 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="63" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A63" s="30" t="s">
         <v>247</v>
       </c>
@@ -10216,7 +10280,7 @@
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
     </row>
-    <row r="64" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="64" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A64" s="30" t="s">
         <v>247</v>
       </c>
@@ -10351,7 +10415,7 @@
       </c>
       <c r="E71" s="26"/>
     </row>
-    <row r="72" spans="1:12" ht="32.75">
+    <row r="72" spans="1:12">
       <c r="A72" s="30" t="s">
         <v>247</v>
       </c>
@@ -10366,7 +10430,7 @@
       </c>
       <c r="E72" s="26"/>
     </row>
-    <row r="73" spans="1:12" ht="32.75">
+    <row r="73" spans="1:12">
       <c r="A73" s="30" t="s">
         <v>247</v>
       </c>
@@ -10388,7 +10452,7 @@
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
-    <row r="74" spans="1:12" ht="32.75">
+    <row r="74" spans="1:12">
       <c r="A74" s="30" t="s">
         <v>247</v>
       </c>
@@ -10507,7 +10571,7 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="32.75" hidden="1">
+    <row r="80" spans="1:12" ht="33" hidden="1">
       <c r="A80" s="30" t="s">
         <v>248</v>
       </c>
@@ -10529,7 +10593,7 @@
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
     </row>
-    <row r="81" spans="1:12" ht="49.1" hidden="1">
+    <row r="81" spans="1:12" ht="33" hidden="1">
       <c r="A81" s="30" t="s">
         <v>248</v>
       </c>
@@ -10551,7 +10615,7 @@
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
     </row>
-    <row r="82" spans="1:12" ht="98.2" hidden="1">
+    <row r="82" spans="1:12" ht="99" hidden="1">
       <c r="A82" s="30" t="s">
         <v>248</v>
       </c>
@@ -10573,7 +10637,7 @@
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
     </row>
-    <row r="83" spans="1:12" ht="32.75" hidden="1">
+    <row r="83" spans="1:12" ht="33" hidden="1">
       <c r="A83" s="30" t="s">
         <v>248</v>
       </c>
@@ -10589,7 +10653,7 @@
       <c r="E83" s="26"/>
       <c r="H83" s="28"/>
     </row>
-    <row r="84" spans="1:12" ht="32.75" hidden="1">
+    <row r="84" spans="1:12" hidden="1">
       <c r="A84" s="30" t="s">
         <v>248</v>
       </c>
@@ -10605,7 +10669,7 @@
       <c r="E84" s="26"/>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" spans="1:12" ht="32.75" hidden="1">
+    <row r="85" spans="1:12" ht="33" hidden="1">
       <c r="A85" s="30" t="s">
         <v>248</v>
       </c>
@@ -10621,7 +10685,7 @@
       <c r="E85" s="26"/>
       <c r="H85" s="28"/>
     </row>
-    <row r="86" spans="1:12" ht="32.75" hidden="1">
+    <row r="86" spans="1:12" ht="33" hidden="1">
       <c r="A86" s="30" t="s">
         <v>248</v>
       </c>
@@ -10643,7 +10707,7 @@
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
     </row>
-    <row r="87" spans="1:12" ht="32.75" hidden="1">
+    <row r="87" spans="1:12" ht="33" hidden="1">
       <c r="A87" s="30" t="s">
         <v>248</v>
       </c>
@@ -10665,7 +10729,7 @@
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
     </row>
-    <row r="88" spans="1:12" ht="32.75" hidden="1">
+    <row r="88" spans="1:12" ht="33" hidden="1">
       <c r="A88" s="30" t="s">
         <v>248</v>
       </c>
@@ -10687,7 +10751,7 @@
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
     </row>
-    <row r="89" spans="1:12" ht="32.75" hidden="1">
+    <row r="89" spans="1:12" ht="33" hidden="1">
       <c r="A89" s="30" t="s">
         <v>248</v>
       </c>
@@ -10709,7 +10773,7 @@
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
     </row>
-    <row r="90" spans="1:12" ht="32.75" hidden="1">
+    <row r="90" spans="1:12" ht="33" hidden="1">
       <c r="A90" s="30" t="s">
         <v>248</v>
       </c>
@@ -10731,7 +10795,7 @@
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
     </row>
-    <row r="91" spans="1:12" ht="32.75" hidden="1">
+    <row r="91" spans="1:12" ht="33" hidden="1">
       <c r="A91" s="30" t="s">
         <v>248</v>
       </c>
@@ -10753,7 +10817,7 @@
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
     </row>
-    <row r="92" spans="1:12" ht="32.75" hidden="1">
+    <row r="92" spans="1:12" ht="33" hidden="1">
       <c r="A92" s="30" t="s">
         <v>248</v>
       </c>
@@ -10775,7 +10839,7 @@
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
     </row>
-    <row r="93" spans="1:12" ht="65.45" hidden="1">
+    <row r="93" spans="1:12" ht="66" hidden="1">
       <c r="A93" s="30" t="s">
         <v>248</v>
       </c>
@@ -10797,7 +10861,7 @@
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
     </row>
-    <row r="94" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="94" spans="1:12" ht="66" hidden="1">
       <c r="A94" s="30" t="s">
         <v>248</v>
       </c>
@@ -10819,7 +10883,7 @@
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
     </row>
-    <row r="95" spans="1:12" ht="114.55" hidden="1">
+    <row r="95" spans="1:12" ht="82.5" hidden="1">
       <c r="A95" s="30" t="s">
         <v>248</v>
       </c>
@@ -10841,7 +10905,7 @@
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
     </row>
-    <row r="96" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="96" spans="1:12" ht="66" hidden="1">
       <c r="A96" s="30" t="s">
         <v>248</v>
       </c>
@@ -10863,7 +10927,7 @@
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
     </row>
-    <row r="97" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="97" spans="1:12" ht="66" hidden="1">
       <c r="A97" s="30" t="s">
         <v>248</v>
       </c>
@@ -10885,7 +10949,7 @@
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
     </row>
-    <row r="98" spans="1:12" ht="65.45" hidden="1">
+    <row r="98" spans="1:12" ht="49.5" hidden="1">
       <c r="A98" s="30" t="s">
         <v>248</v>
       </c>
@@ -10907,7 +10971,7 @@
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
     </row>
-    <row r="99" spans="1:12" ht="65.45" hidden="1">
+    <row r="99" spans="1:12" ht="66" hidden="1">
       <c r="A99" s="30" t="s">
         <v>248</v>
       </c>
@@ -10929,7 +10993,7 @@
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
     </row>
-    <row r="100" spans="1:12" ht="32.75" hidden="1">
+    <row r="100" spans="1:12" hidden="1">
       <c r="A100" s="30" t="s">
         <v>248</v>
       </c>
@@ -10951,7 +11015,7 @@
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
     </row>
-    <row r="101" spans="1:12" ht="65.45" hidden="1">
+    <row r="101" spans="1:12" ht="49.5" hidden="1">
       <c r="A101" s="30" t="s">
         <v>248</v>
       </c>
@@ -10973,7 +11037,7 @@
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
     </row>
-    <row r="102" spans="1:12" ht="65.45" hidden="1">
+    <row r="102" spans="1:12" ht="49.5" hidden="1">
       <c r="A102" s="30" t="s">
         <v>248</v>
       </c>
@@ -10995,7 +11059,7 @@
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
     </row>
-    <row r="103" spans="1:12" ht="49.1" hidden="1">
+    <row r="103" spans="1:12" ht="33" hidden="1">
       <c r="A103" s="30" t="s">
         <v>248</v>
       </c>
@@ -11017,7 +11081,7 @@
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
     </row>
-    <row r="104" spans="1:12" ht="32.75" hidden="1">
+    <row r="104" spans="1:12" ht="33" hidden="1">
       <c r="A104" s="30" t="s">
         <v>248</v>
       </c>
@@ -11055,7 +11119,7 @@
       <c r="E105" s="26"/>
       <c r="H105" s="28"/>
     </row>
-    <row r="106" spans="1:12" ht="49.1" hidden="1">
+    <row r="106" spans="1:12" ht="49.5" hidden="1">
       <c r="A106" s="30" t="s">
         <v>248</v>
       </c>
@@ -11165,7 +11229,7 @@
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
     </row>
-    <row r="111" spans="1:12" ht="163.65" hidden="1">
+    <row r="111" spans="1:12" ht="165" hidden="1">
       <c r="A111" s="30" t="s">
         <v>249</v>
       </c>
@@ -11180,7 +11244,7 @@
       </c>
       <c r="E111" s="26"/>
     </row>
-    <row r="112" spans="1:12" ht="32.75" hidden="1">
+    <row r="112" spans="1:12" ht="33" hidden="1">
       <c r="A112" s="30" t="s">
         <v>249</v>
       </c>
@@ -11195,7 +11259,7 @@
       </c>
       <c r="E112" s="26"/>
     </row>
-    <row r="113" spans="1:5" ht="32.75" hidden="1">
+    <row r="113" spans="1:5" ht="33" hidden="1">
       <c r="A113" s="30" t="s">
         <v>249</v>
       </c>
@@ -11210,7 +11274,7 @@
       </c>
       <c r="E113" s="26"/>
     </row>
-    <row r="114" spans="1:5" ht="32.75" hidden="1">
+    <row r="114" spans="1:5" ht="33" hidden="1">
       <c r="A114" s="30" t="s">
         <v>249</v>
       </c>
@@ -11225,7 +11289,7 @@
       </c>
       <c r="E114" s="26"/>
     </row>
-    <row r="115" spans="1:5" ht="32.75" hidden="1">
+    <row r="115" spans="1:5" ht="33" hidden="1">
       <c r="A115" s="30" t="s">
         <v>249</v>
       </c>
@@ -11240,7 +11304,7 @@
       </c>
       <c r="E115" s="26"/>
     </row>
-    <row r="116" spans="1:5" ht="32.75" hidden="1">
+    <row r="116" spans="1:5" ht="33" hidden="1">
       <c r="A116" s="30" t="s">
         <v>249</v>
       </c>
@@ -11255,7 +11319,7 @@
       </c>
       <c r="E116" s="26"/>
     </row>
-    <row r="117" spans="1:5" ht="32.75" hidden="1">
+    <row r="117" spans="1:5" ht="33" hidden="1">
       <c r="A117" s="30" t="s">
         <v>249</v>
       </c>
@@ -11270,7 +11334,7 @@
       </c>
       <c r="E117" s="26"/>
     </row>
-    <row r="118" spans="1:5" ht="32.75" hidden="1">
+    <row r="118" spans="1:5" ht="33" hidden="1">
       <c r="A118" s="30" t="s">
         <v>249</v>
       </c>
@@ -11285,7 +11349,7 @@
       </c>
       <c r="E118" s="26"/>
     </row>
-    <row r="119" spans="1:5" ht="65.45" hidden="1">
+    <row r="119" spans="1:5" ht="66" hidden="1">
       <c r="A119" s="30" t="s">
         <v>249</v>
       </c>
@@ -11300,7 +11364,7 @@
       </c>
       <c r="E119" s="26"/>
     </row>
-    <row r="120" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="120" spans="1:5" ht="66" hidden="1">
       <c r="A120" s="30" t="s">
         <v>249</v>
       </c>
@@ -11315,7 +11379,7 @@
       </c>
       <c r="E120" s="26"/>
     </row>
-    <row r="121" spans="1:5" ht="114.55" hidden="1">
+    <row r="121" spans="1:5" ht="82.5" hidden="1">
       <c r="A121" s="30" t="s">
         <v>249</v>
       </c>
@@ -11330,7 +11394,7 @@
       </c>
       <c r="E121" s="26"/>
     </row>
-    <row r="122" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="122" spans="1:5" ht="66" hidden="1">
       <c r="A122" s="30" t="s">
         <v>249</v>
       </c>
@@ -11345,7 +11409,7 @@
       </c>
       <c r="E122" s="26"/>
     </row>
-    <row r="123" spans="1:5" ht="65.45" hidden="1">
+    <row r="123" spans="1:5" ht="49.5" hidden="1">
       <c r="A123" s="30" t="s">
         <v>249</v>
       </c>
@@ -11360,7 +11424,7 @@
       </c>
       <c r="E123" s="26"/>
     </row>
-    <row r="124" spans="1:5" ht="65.45" hidden="1">
+    <row r="124" spans="1:5" ht="49.5" hidden="1">
       <c r="A124" s="30" t="s">
         <v>249</v>
       </c>
@@ -11375,7 +11439,7 @@
       </c>
       <c r="E124" s="26"/>
     </row>
-    <row r="125" spans="1:5" ht="32.75" hidden="1">
+    <row r="125" spans="1:5" ht="33" hidden="1">
       <c r="A125" s="30" t="s">
         <v>249</v>
       </c>
@@ -11390,7 +11454,7 @@
       </c>
       <c r="E125" s="26"/>
     </row>
-    <row r="126" spans="1:5" ht="32.75" hidden="1">
+    <row r="126" spans="1:5" ht="33" hidden="1">
       <c r="A126" s="30" t="s">
         <v>249</v>
       </c>
@@ -11405,7 +11469,7 @@
       </c>
       <c r="E126" s="26"/>
     </row>
-    <row r="127" spans="1:5" ht="32.75" hidden="1">
+    <row r="127" spans="1:5" ht="33" hidden="1">
       <c r="A127" s="30" t="s">
         <v>249</v>
       </c>
@@ -11420,7 +11484,7 @@
       </c>
       <c r="E127" s="26"/>
     </row>
-    <row r="128" spans="1:5" ht="98.2" hidden="1">
+    <row r="128" spans="1:5" ht="99" hidden="1">
       <c r="A128" s="30" t="s">
         <v>249</v>
       </c>
@@ -11435,7 +11499,7 @@
       </c>
       <c r="E128" s="26"/>
     </row>
-    <row r="129" spans="1:5" ht="65.45" hidden="1">
+    <row r="129" spans="1:5" ht="66" hidden="1">
       <c r="A129" s="30" t="s">
         <v>249</v>
       </c>
@@ -11450,7 +11514,7 @@
       </c>
       <c r="E129" s="26"/>
     </row>
-    <row r="130" spans="1:5" ht="49.1" hidden="1">
+    <row r="130" spans="1:5" ht="49.5" hidden="1">
       <c r="A130" s="30" t="s">
         <v>249</v>
       </c>
@@ -11465,7 +11529,7 @@
       </c>
       <c r="E130" s="26"/>
     </row>
-    <row r="131" spans="1:5" ht="32.75" hidden="1">
+    <row r="131" spans="1:5" ht="33" hidden="1">
       <c r="A131" s="30" t="s">
         <v>249</v>
       </c>
@@ -11480,7 +11544,7 @@
       </c>
       <c r="E131" s="26"/>
     </row>
-    <row r="132" spans="1:5" ht="49.1" hidden="1">
+    <row r="132" spans="1:5" ht="49.5" hidden="1">
       <c r="A132" s="30" t="s">
         <v>249</v>
       </c>
@@ -11495,7 +11559,7 @@
       </c>
       <c r="E132" s="26"/>
     </row>
-    <row r="133" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="133" spans="1:5" ht="82.5" hidden="1">
       <c r="A133" s="30" t="s">
         <v>249</v>
       </c>
@@ -11510,7 +11574,7 @@
       </c>
       <c r="E133" s="26"/>
     </row>
-    <row r="134" spans="1:5" ht="32.75" hidden="1">
+    <row r="134" spans="1:5" ht="33" hidden="1">
       <c r="A134" s="30" t="s">
         <v>249</v>
       </c>
@@ -11525,7 +11589,7 @@
       </c>
       <c r="E134" s="26"/>
     </row>
-    <row r="135" spans="1:5" ht="32.75" hidden="1">
+    <row r="135" spans="1:5" ht="33" hidden="1">
       <c r="A135" s="30" t="s">
         <v>249</v>
       </c>
@@ -11540,7 +11604,7 @@
       </c>
       <c r="E135" s="26"/>
     </row>
-    <row r="136" spans="1:5" ht="49.1" hidden="1">
+    <row r="136" spans="1:5" ht="33" hidden="1">
       <c r="A136" s="30" t="s">
         <v>249</v>
       </c>
@@ -11555,7 +11619,7 @@
       </c>
       <c r="E136" s="26"/>
     </row>
-    <row r="137" spans="1:5" ht="49.1" hidden="1">
+    <row r="137" spans="1:5" ht="49.5" hidden="1">
       <c r="A137" s="30" t="s">
         <v>249</v>
       </c>
@@ -11570,7 +11634,7 @@
       </c>
       <c r="E137" s="26"/>
     </row>
-    <row r="138" spans="1:5" ht="49.1" hidden="1">
+    <row r="138" spans="1:5" ht="49.5" hidden="1">
       <c r="A138" s="30" t="s">
         <v>249</v>
       </c>
@@ -11585,7 +11649,7 @@
       </c>
       <c r="E138" s="26"/>
     </row>
-    <row r="139" spans="1:5" ht="65.45" hidden="1">
+    <row r="139" spans="1:5" ht="66" hidden="1">
       <c r="A139" s="30" t="s">
         <v>249</v>
       </c>
@@ -11600,7 +11664,7 @@
       </c>
       <c r="E139" s="26"/>
     </row>
-    <row r="140" spans="1:5" ht="65.45" hidden="1">
+    <row r="140" spans="1:5" ht="66" hidden="1">
       <c r="A140" s="30" t="s">
         <v>249</v>
       </c>
@@ -11615,7 +11679,7 @@
       </c>
       <c r="E140" s="26"/>
     </row>
-    <row r="141" spans="1:5" ht="114.55" hidden="1">
+    <row r="141" spans="1:5" ht="99" hidden="1">
       <c r="A141" s="30" t="s">
         <v>249</v>
       </c>
@@ -11630,7 +11694,7 @@
       </c>
       <c r="E141" s="26"/>
     </row>
-    <row r="142" spans="1:5" ht="49.1" hidden="1">
+    <row r="142" spans="1:5" ht="33" hidden="1">
       <c r="A142" s="30" t="s">
         <v>249</v>
       </c>
@@ -11645,7 +11709,7 @@
       </c>
       <c r="E142" s="26"/>
     </row>
-    <row r="143" spans="1:5" ht="49.1" hidden="1">
+    <row r="143" spans="1:5" ht="33" hidden="1">
       <c r="A143" s="30" t="s">
         <v>249</v>
       </c>
@@ -11660,7 +11724,7 @@
       </c>
       <c r="E143" s="26"/>
     </row>
-    <row r="144" spans="1:5" ht="32.75" hidden="1">
+    <row r="144" spans="1:5" ht="33" hidden="1">
       <c r="A144" s="30" t="s">
         <v>249</v>
       </c>
@@ -11675,7 +11739,7 @@
       </c>
       <c r="E144" s="26"/>
     </row>
-    <row r="145" spans="1:5" ht="49.1" hidden="1">
+    <row r="145" spans="1:5" ht="49.5" hidden="1">
       <c r="A145" s="30" t="s">
         <v>249</v>
       </c>
@@ -11690,7 +11754,7 @@
       </c>
       <c r="E145" s="26"/>
     </row>
-    <row r="146" spans="1:5" ht="49.1" hidden="1">
+    <row r="146" spans="1:5" ht="49.5" hidden="1">
       <c r="A146" s="30" t="s">
         <v>249</v>
       </c>
@@ -11705,7 +11769,7 @@
       </c>
       <c r="E146" s="26"/>
     </row>
-    <row r="147" spans="1:5" ht="32.75" hidden="1">
+    <row r="147" spans="1:5" ht="33" hidden="1">
       <c r="A147" s="30" t="s">
         <v>249</v>
       </c>
@@ -11720,7 +11784,7 @@
       </c>
       <c r="E147" s="26"/>
     </row>
-    <row r="148" spans="1:5" ht="32.75" hidden="1">
+    <row r="148" spans="1:5" ht="33" hidden="1">
       <c r="A148" s="30" t="s">
         <v>249</v>
       </c>
@@ -11735,7 +11799,7 @@
       </c>
       <c r="E148" s="26"/>
     </row>
-    <row r="149" spans="1:5" ht="32.75" hidden="1">
+    <row r="149" spans="1:5" ht="33" hidden="1">
       <c r="A149" s="30" t="s">
         <v>249</v>
       </c>
@@ -11750,7 +11814,7 @@
       </c>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="1:5" ht="32.75" hidden="1">
+    <row r="150" spans="1:5" ht="33" hidden="1">
       <c r="A150" s="30" t="s">
         <v>249</v>
       </c>
@@ -11765,7 +11829,7 @@
       </c>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="1:5" ht="49.1" hidden="1">
+    <row r="151" spans="1:5" ht="49.5" hidden="1">
       <c r="A151" s="30" t="s">
         <v>249</v>
       </c>
@@ -11780,7 +11844,7 @@
       </c>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="1:5" ht="65.45" hidden="1">
+    <row r="152" spans="1:5" ht="66" hidden="1">
       <c r="A152" s="30" t="s">
         <v>249</v>
       </c>
@@ -11795,7 +11859,7 @@
       </c>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="1:5" ht="65.45" hidden="1">
+    <row r="153" spans="1:5" ht="66" hidden="1">
       <c r="A153" s="30" t="s">
         <v>249</v>
       </c>
@@ -11810,7 +11874,7 @@
       </c>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="1:5" ht="49.1" hidden="1">
+    <row r="154" spans="1:5" ht="49.5" hidden="1">
       <c r="A154" s="30" t="s">
         <v>249</v>
       </c>
@@ -11825,7 +11889,7 @@
       </c>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="1:5" ht="65.45" hidden="1">
+    <row r="155" spans="1:5" ht="66" hidden="1">
       <c r="A155" s="30" t="s">
         <v>249</v>
       </c>
@@ -11840,7 +11904,7 @@
       </c>
       <c r="E155" s="26"/>
     </row>
-    <row r="156" spans="1:5" ht="65.45" hidden="1">
+    <row r="156" spans="1:5" ht="66" hidden="1">
       <c r="A156" s="30" t="s">
         <v>249</v>
       </c>
@@ -11855,7 +11919,7 @@
       </c>
       <c r="E156" s="26"/>
     </row>
-    <row r="157" spans="1:5" ht="65.45" hidden="1">
+    <row r="157" spans="1:5" ht="66" hidden="1">
       <c r="A157" s="30" t="s">
         <v>249</v>
       </c>
@@ -11870,7 +11934,7 @@
       </c>
       <c r="E157" s="26"/>
     </row>
-    <row r="158" spans="1:5" ht="65.45" hidden="1">
+    <row r="158" spans="1:5" ht="66" hidden="1">
       <c r="A158" s="30" t="s">
         <v>249</v>
       </c>
@@ -11885,7 +11949,7 @@
       </c>
       <c r="E158" s="26"/>
     </row>
-    <row r="159" spans="1:5" ht="130.94999999999999" hidden="1">
+    <row r="159" spans="1:5" ht="132" hidden="1">
       <c r="A159" s="30" t="s">
         <v>249</v>
       </c>
@@ -11900,7 +11964,7 @@
       </c>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="1:5" ht="65.45" hidden="1">
+    <row r="160" spans="1:5" ht="66" hidden="1">
       <c r="A160" s="30" t="s">
         <v>249</v>
       </c>
@@ -11915,7 +11979,7 @@
       </c>
       <c r="E160" s="26"/>
     </row>
-    <row r="161" spans="1:5" ht="32.75" hidden="1">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" s="30" t="s">
         <v>250</v>
       </c>
@@ -11930,7 +11994,7 @@
       </c>
       <c r="E161" s="26"/>
     </row>
-    <row r="162" spans="1:5" ht="32.75" hidden="1">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="30" t="s">
         <v>250</v>
       </c>
@@ -11945,7 +12009,7 @@
       </c>
       <c r="E162" s="26"/>
     </row>
-    <row r="163" spans="1:5" ht="32.75" hidden="1">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="30" t="s">
         <v>250</v>
       </c>
@@ -11960,7 +12024,7 @@
       </c>
       <c r="E163" s="26"/>
     </row>
-    <row r="164" spans="1:5" ht="32.75" hidden="1">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" s="30" t="s">
         <v>250</v>
       </c>
@@ -11975,7 +12039,7 @@
       </c>
       <c r="E164" s="26"/>
     </row>
-    <row r="165" spans="1:5" ht="32.75" hidden="1">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" s="30" t="s">
         <v>250</v>
       </c>
@@ -11990,7 +12054,7 @@
       </c>
       <c r="E165" s="26"/>
     </row>
-    <row r="166" spans="1:5" ht="32.75" hidden="1">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" s="30" t="s">
         <v>250</v>
       </c>
@@ -12005,7 +12069,7 @@
       </c>
       <c r="E166" s="26"/>
     </row>
-    <row r="167" spans="1:5" ht="32.75" hidden="1">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" s="30" t="s">
         <v>250</v>
       </c>
@@ -12020,7 +12084,7 @@
       </c>
       <c r="E167" s="26"/>
     </row>
-    <row r="168" spans="1:5" ht="32.75" hidden="1">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" s="30" t="s">
         <v>250</v>
       </c>
@@ -12035,7 +12099,7 @@
       </c>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="1:5" ht="32.75" hidden="1">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="30" t="s">
         <v>250</v>
       </c>
@@ -12050,7 +12114,7 @@
       </c>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="1:5" ht="32.75" hidden="1">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="30" t="s">
         <v>250</v>
       </c>
@@ -12065,7 +12129,7 @@
       </c>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="1:5" ht="32.75" hidden="1">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" s="30" t="s">
         <v>250</v>
       </c>
@@ -12080,7 +12144,7 @@
       </c>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="1:5" ht="32.75" hidden="1">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" s="30" t="s">
         <v>250</v>
       </c>
@@ -12095,7 +12159,7 @@
       </c>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="1:5" ht="32.75" hidden="1">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="30" t="s">
         <v>250</v>
       </c>
@@ -12167,7 +12231,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="136" customWidth="1"/>
@@ -12191,7 +12255,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="123" t="s">
         <v>344</v>
       </c>
@@ -12208,7 +12272,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="127"/>
       <c r="B3" s="124" t="s">
         <v>311</v>
@@ -12240,7 +12304,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="128"/>
       <c r="B5" s="129" t="s">
         <v>338</v>
@@ -12255,7 +12319,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="128"/>
       <c r="B6" s="130"/>
       <c r="C6" s="125">
@@ -12268,7 +12332,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="128"/>
       <c r="B7" s="130"/>
       <c r="C7" s="125">
@@ -12281,7 +12345,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="128"/>
       <c r="B8" s="131"/>
       <c r="C8" s="125">
@@ -12294,7 +12358,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="128"/>
       <c r="B9" s="129" t="s">
         <v>339</v>
@@ -12309,7 +12373,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="128"/>
       <c r="B10" s="130"/>
       <c r="C10" s="125">
@@ -12322,7 +12386,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="128"/>
       <c r="B11" s="130"/>
       <c r="C11" s="125">
@@ -12335,7 +12399,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="128"/>
       <c r="B12" s="130"/>
       <c r="C12" s="125">
@@ -12348,7 +12412,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="128"/>
       <c r="B13" s="131"/>
       <c r="C13" s="125">
@@ -12361,7 +12425,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="128"/>
       <c r="B14" s="129" t="s">
         <v>349</v>
@@ -12376,7 +12440,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="128"/>
       <c r="B15" s="130"/>
       <c r="C15" s="125">
@@ -12389,7 +12453,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="128"/>
       <c r="B16" s="130"/>
       <c r="C16" s="125">
@@ -12402,7 +12466,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="128"/>
       <c r="B17" s="133"/>
       <c r="C17" s="125">
@@ -12415,7 +12479,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="128"/>
       <c r="B18" s="134"/>
       <c r="C18" s="125">
@@ -12428,7 +12492,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="128"/>
       <c r="B19" s="129" t="s">
         <v>340</v>
@@ -12443,7 +12507,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="128"/>
       <c r="B20" s="130"/>
       <c r="C20" s="125">
@@ -12456,7 +12520,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="128"/>
       <c r="B21" s="131"/>
       <c r="C21" s="125">
@@ -12469,7 +12533,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="128"/>
       <c r="B22" s="129" t="s">
         <v>323</v>
@@ -12484,7 +12548,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="128"/>
       <c r="B23" s="134"/>
       <c r="C23" s="125">
@@ -12497,7 +12561,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="128"/>
       <c r="B24" s="124" t="s">
         <v>324</v>
@@ -12512,7 +12576,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="135"/>
       <c r="B25" s="124" t="s">
         <v>326</v>
@@ -12527,7 +12591,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="123" t="s">
         <v>327</v>
       </c>
@@ -12544,7 +12608,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="135"/>
       <c r="B27" s="132" t="s">
         <v>329</v>
